--- a/3_Component_Results/TRDBAL/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0.08368629757078778</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.3438442104993772</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.4242218510161214</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6513231540611168</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.6522263476946283</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1184042631598828</v>
+        <v>0.205312877006492</v>
       </c>
       <c r="C3">
-        <v>0.2825942133895186</v>
+        <v>0.4985604499272415</v>
       </c>
       <c r="D3">
-        <v>0.5652994351333596</v>
+        <v>0.4677225124169028</v>
       </c>
       <c r="E3">
-        <v>0.7518639738232971</v>
+        <v>0.6839024143961643</v>
       </c>
       <c r="F3">
-        <v>0.7498702973920911</v>
+        <v>0.6588478714022412</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1192085388536248</v>
+        <v>0.0422407319769525</v>
       </c>
       <c r="C4">
-        <v>0.44683828785763</v>
+        <v>0.6156476625237515</v>
       </c>
       <c r="D4">
-        <v>0.8820367712169235</v>
+        <v>0.8090695585645494</v>
       </c>
       <c r="E4">
-        <v>0.9391681272365047</v>
+        <v>0.8994829395628077</v>
       </c>
       <c r="F4">
-        <v>0.9410296659105828</v>
+        <v>0.9076125213463587</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,19 +519,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.08915535397688459</v>
+        <v>0.1726989577612019</v>
       </c>
       <c r="C5">
-        <v>0.3497186749156894</v>
+        <v>0.4859904821377091</v>
       </c>
       <c r="D5">
-        <v>0.7544107070005887</v>
+        <v>0.5789570236283166</v>
       </c>
       <c r="E5">
-        <v>0.8685681936385816</v>
+        <v>0.7608922549404197</v>
       </c>
       <c r="F5">
-        <v>0.8729337444196724</v>
+        <v>0.7487137941609299</v>
       </c>
       <c r="G5">
         <v>49</v>
@@ -542,19 +542,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05257923246070431</v>
+        <v>-0.05426476430528045</v>
       </c>
       <c r="C6">
-        <v>0.4184116557199164</v>
+        <v>0.5519219891770294</v>
       </c>
       <c r="D6">
-        <v>0.8283763945157689</v>
+        <v>0.6681402045837443</v>
       </c>
       <c r="E6">
-        <v>0.9101518524486828</v>
+        <v>0.8173984368615739</v>
       </c>
       <c r="F6">
-        <v>0.9182472584989733</v>
+        <v>0.8242260833855453</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -565,19 +565,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04545571844243211</v>
+        <v>0.0383632470686223</v>
       </c>
       <c r="C7">
-        <v>0.4029547643554973</v>
+        <v>0.443900067936677</v>
       </c>
       <c r="D7">
-        <v>0.9607177897525676</v>
+        <v>0.490699680860556</v>
       </c>
       <c r="E7">
-        <v>0.9801621242185231</v>
+        <v>0.7004995937618779</v>
       </c>
       <c r="F7">
-        <v>0.9919068707495274</v>
+        <v>0.7085918159736068</v>
       </c>
       <c r="G7">
         <v>39</v>
@@ -588,19 +588,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0739756360336664</v>
+        <v>-0.0001125680424399982</v>
       </c>
       <c r="C8">
-        <v>0.4525268528651039</v>
+        <v>0.5144441553180874</v>
       </c>
       <c r="D8">
-        <v>1.002429231202479</v>
+        <v>0.5897234012367705</v>
       </c>
       <c r="E8">
-        <v>1.001213878850308</v>
+        <v>0.7679345032206656</v>
       </c>
       <c r="F8">
-        <v>1.011880237893846</v>
+        <v>0.7782428017825981</v>
       </c>
       <c r="G8">
         <v>38</v>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.09049775144338504</v>
+        <v>0.02398440652176793</v>
       </c>
       <c r="C9">
-        <v>0.5548980195240077</v>
+        <v>0.5322186494472522</v>
       </c>
       <c r="D9">
-        <v>1.669413354135971</v>
+        <v>0.7385541288137565</v>
       </c>
       <c r="E9">
-        <v>1.292057798295406</v>
+        <v>0.8593917202380743</v>
       </c>
       <c r="F9">
-        <v>1.320713703523836</v>
+        <v>0.880271447287956</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -634,19 +634,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2875238308911399</v>
+        <v>-0.2556182063508592</v>
       </c>
       <c r="C10">
-        <v>0.3303473366629394</v>
+        <v>0.3897054822362743</v>
       </c>
       <c r="D10">
-        <v>0.3671259815470544</v>
+        <v>0.4087892466617125</v>
       </c>
       <c r="E10">
-        <v>0.605909218899213</v>
+        <v>0.6393662852088093</v>
       </c>
       <c r="F10">
-        <v>0.5534774260586304</v>
+        <v>0.6081674939718213</v>
       </c>
       <c r="G10">
         <v>14</v>

--- a/3_Component_Results/TRDBAL/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.08368629757078778</v>
+        <v>-0.01259263455413108</v>
       </c>
       <c r="C2">
-        <v>0.3438442104993772</v>
+        <v>0.6033495300249013</v>
       </c>
       <c r="D2">
-        <v>0.4242218510161214</v>
+        <v>0.7009422445240612</v>
       </c>
       <c r="E2">
-        <v>0.6513231540611168</v>
+        <v>0.8372229359758733</v>
       </c>
       <c r="F2">
-        <v>0.6522263476946283</v>
+        <v>0.845458067251492</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.205312877006492</v>
+        <v>0.2836421595116398</v>
       </c>
       <c r="C3">
-        <v>0.4985604499272415</v>
+        <v>0.5962606503161496</v>
       </c>
       <c r="D3">
-        <v>0.4677225124169028</v>
+        <v>0.6021311585356434</v>
       </c>
       <c r="E3">
-        <v>0.6839024143961643</v>
+        <v>0.7759711067659951</v>
       </c>
       <c r="F3">
-        <v>0.6588478714022412</v>
+        <v>0.7296059069611965</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0422407319769525</v>
+        <v>0.1183466818900022</v>
       </c>
       <c r="C4">
-        <v>0.6156476625237515</v>
+        <v>0.7836512297193149</v>
       </c>
       <c r="D4">
-        <v>0.8090695585645494</v>
+        <v>1.193643475559592</v>
       </c>
       <c r="E4">
-        <v>0.8994829395628077</v>
+        <v>1.092539919435254</v>
       </c>
       <c r="F4">
-        <v>0.9076125213463587</v>
+        <v>1.097366538808324</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1726989577612019</v>
+        <v>0.2525900972880621</v>
       </c>
       <c r="C5">
-        <v>0.4859904821377091</v>
+        <v>0.6703098833254503</v>
       </c>
       <c r="D5">
-        <v>0.5789570236283166</v>
+        <v>1.002878687496652</v>
       </c>
       <c r="E5">
-        <v>0.7608922549404197</v>
+        <v>1.001438309381387</v>
       </c>
       <c r="F5">
-        <v>0.7487137941609299</v>
+        <v>0.9793147045085741</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.05426476430528045</v>
+        <v>0.0217409311959274</v>
       </c>
       <c r="C6">
-        <v>0.5519219891770294</v>
+        <v>0.7004675121762703</v>
       </c>
       <c r="D6">
-        <v>0.6681402045837443</v>
+        <v>1.024571082396416</v>
       </c>
       <c r="E6">
-        <v>0.8173984368615739</v>
+        <v>1.012210987095287</v>
       </c>
       <c r="F6">
-        <v>0.8242260833855453</v>
+        <v>1.022918092182276</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0383632470686223</v>
+        <v>0.1372560159180706</v>
       </c>
       <c r="C7">
-        <v>0.443900067936677</v>
+        <v>0.6144005222385287</v>
       </c>
       <c r="D7">
-        <v>0.490699680860556</v>
+        <v>0.9138507028447672</v>
       </c>
       <c r="E7">
-        <v>0.7004995937618779</v>
+        <v>0.9559553874761977</v>
       </c>
       <c r="F7">
-        <v>0.7085918159736068</v>
+        <v>0.9587497007249187</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001125680424399982</v>
+        <v>0.09871507743660377</v>
       </c>
       <c r="C8">
-        <v>0.5144441553180874</v>
+        <v>0.6852141803533275</v>
       </c>
       <c r="D8">
-        <v>0.5897234012367705</v>
+        <v>1.025442875956981</v>
       </c>
       <c r="E8">
-        <v>0.7679345032206656</v>
+        <v>1.012641533790206</v>
       </c>
       <c r="F8">
-        <v>0.7782428017825981</v>
+        <v>1.021720142012909</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02398440652176793</v>
+        <v>0.1617831974124649</v>
       </c>
       <c r="C9">
-        <v>0.5322186494472522</v>
+        <v>0.7534609121388414</v>
       </c>
       <c r="D9">
-        <v>0.7385541288137565</v>
+        <v>1.440524723083455</v>
       </c>
       <c r="E9">
-        <v>0.8593917202380743</v>
+        <v>1.200218614704611</v>
       </c>
       <c r="F9">
-        <v>0.880271447287956</v>
+        <v>1.220160006814661</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.2556182063508592</v>
+        <v>-0.2070359202823368</v>
       </c>
       <c r="C10">
-        <v>0.3897054822362743</v>
+        <v>0.6345706742736936</v>
       </c>
       <c r="D10">
-        <v>0.4087892466617125</v>
+        <v>1.392524628435378</v>
       </c>
       <c r="E10">
-        <v>0.6393662852088093</v>
+        <v>1.180052807477436</v>
       </c>
       <c r="F10">
-        <v>0.6081674939718213</v>
+        <v>1.209186704288152</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.2787284955200363</v>
+        <v>0.02035458815990314</v>
       </c>
       <c r="C11">
-        <v>0.3053252855008393</v>
+        <v>0.3973775210872706</v>
       </c>
       <c r="D11">
-        <v>0.1485353700110615</v>
+        <v>0.2988378101058986</v>
       </c>
       <c r="E11">
-        <v>0.3854028671546976</v>
+        <v>0.5466605986404166</v>
       </c>
       <c r="F11">
-        <v>0.297585693112502</v>
+        <v>0.6107613085800574</v>
       </c>
       <c r="G11">
         <v>5</v>
